--- a/results/I2_N7_T30_C210_0_res_fix.xlsx
+++ b/results/I2_N7_T30_C210_0_res_fix.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>26.93778129856641</v>
+        <v>26.53458309510687</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01200008392333984</v>
+        <v>0.01199984550476074</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>26.9377812985664</v>
+        <v>26.53458309510687</v>
       </c>
     </row>
     <row r="7">
@@ -634,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -678,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -700,7 +700,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -934,7 +934,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>28.38440776138323</v>
+        <v>23.63137714923691</v>
       </c>
     </row>
     <row r="6">
@@ -942,7 +942,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>24.75303061214632</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
@@ -958,7 +958,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>20</v>
+        <v>26.64562664123322</v>
       </c>
     </row>
     <row r="9">
@@ -982,7 +982,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>22.3780033641692</v>
+        <v>29.02363000540241</v>
       </c>
     </row>
     <row r="12">
@@ -990,7 +990,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>29.53026988223373</v>
+        <v>20.12083045973596</v>
       </c>
     </row>
   </sheetData>
@@ -1155,7 +1155,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>59.62999999999985</v>
+        <v>59.63</v>
       </c>
     </row>
     <row r="10">
@@ -1166,7 +1166,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>62.45499999999986</v>
+        <v>62.455</v>
       </c>
     </row>
     <row r="11">
@@ -1177,7 +1177,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>60.295</v>
+        <v>60.29499999999985</v>
       </c>
     </row>
     <row r="12">
@@ -1188,7 +1188,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>161.2600000000006</v>
+        <v>161.26</v>
       </c>
     </row>
     <row r="13">
@@ -1210,7 +1210,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>163.1950000000006</v>
+        <v>163.195</v>
       </c>
     </row>
     <row r="15">
@@ -1221,7 +1221,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>165.1300000000006</v>
+        <v>165.13</v>
       </c>
     </row>
     <row r="16">
@@ -1232,7 +1232,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>161.585</v>
+        <v>161.5850000000005</v>
       </c>
     </row>
     <row r="17">
@@ -1243,7 +1243,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>185.6900000000003</v>
+        <v>121.2850000000009</v>
       </c>
     </row>
     <row r="18">
@@ -1254,7 +1254,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>187.5150000000003</v>
+        <v>130.7800000000009</v>
       </c>
     </row>
     <row r="19">
@@ -1265,7 +1265,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>183.7750000000003</v>
+        <v>114.2150000000009</v>
       </c>
     </row>
     <row r="20">
@@ -1276,7 +1276,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>193.0650000000003</v>
+        <v>123.4450000000009</v>
       </c>
     </row>
     <row r="21">
@@ -1287,7 +1287,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>189.7550000000003</v>
+        <v>119.9650000000009</v>
       </c>
     </row>
     <row r="22">
@@ -1298,7 +1298,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>138.6549999999996</v>
+        <v>74.25</v>
       </c>
     </row>
     <row r="23">
@@ -1309,7 +1309,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>131.0049999999996</v>
+        <v>74.27000000000022</v>
       </c>
     </row>
     <row r="24">
@@ -1320,7 +1320,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>143.3449999999996</v>
+        <v>73.78500000000022</v>
       </c>
     </row>
     <row r="25">
@@ -1331,7 +1331,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>146.6099999999996</v>
+        <v>76.99000000000022</v>
       </c>
     </row>
     <row r="26">
@@ -1342,7 +1342,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>146.2549999999997</v>
+        <v>76.46500000000022</v>
       </c>
     </row>
     <row r="27">
@@ -1408,7 +1408,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>63.01999999999957</v>
+        <v>184.3050000000005</v>
       </c>
     </row>
     <row r="33">
@@ -1419,7 +1419,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>65.86499999999957</v>
+        <v>196.6450000000005</v>
       </c>
     </row>
     <row r="34">
@@ -1430,7 +1430,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>65.54499999999956</v>
+        <v>179.7600000000004</v>
       </c>
     </row>
     <row r="35">
@@ -1441,7 +1441,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>55.32499999999956</v>
+        <v>178.7700000000004</v>
       </c>
     </row>
     <row r="36">
@@ -1452,7 +1452,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>63.90499999999956</v>
+        <v>183.8700000000004</v>
       </c>
     </row>
     <row r="37">
@@ -1463,7 +1463,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>193.6100000000015</v>
+        <v>193.6100000000009</v>
       </c>
     </row>
     <row r="38">
@@ -1474,7 +1474,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>171.3850000000015</v>
+        <v>171.3850000000014</v>
       </c>
     </row>
     <row r="39">
@@ -1485,7 +1485,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>207.5550000000015</v>
+        <v>207.555</v>
       </c>
     </row>
     <row r="40">
@@ -1496,7 +1496,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>196.0250000000015</v>
+        <v>196.0250000000009</v>
       </c>
     </row>
     <row r="41">
@@ -1507,7 +1507,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>205.41</v>
+        <v>205.4100000000014</v>
       </c>
     </row>
     <row r="42">
@@ -1518,7 +1518,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>193.6100000000015</v>
+        <v>193.6100000000009</v>
       </c>
     </row>
     <row r="43">
@@ -1529,7 +1529,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>171.3850000000015</v>
+        <v>171.3850000000014</v>
       </c>
     </row>
     <row r="44">
@@ -1540,7 +1540,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>207.5550000000015</v>
+        <v>207.555</v>
       </c>
     </row>
     <row r="45">
@@ -1551,7 +1551,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>196.0250000000015</v>
+        <v>196.0250000000009</v>
       </c>
     </row>
     <row r="46">
@@ -1562,7 +1562,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>205.41</v>
+        <v>205.4100000000014</v>
       </c>
     </row>
     <row r="47">
@@ -1573,7 +1573,7 @@
         <v>1</v>
       </c>
       <c r="C47" t="n">
-        <v>63.01999999999957</v>
+        <v>184.3050000000005</v>
       </c>
     </row>
     <row r="48">
@@ -1584,7 +1584,7 @@
         <v>2</v>
       </c>
       <c r="C48" t="n">
-        <v>65.86499999999957</v>
+        <v>196.6450000000005</v>
       </c>
     </row>
     <row r="49">
@@ -1595,7 +1595,7 @@
         <v>3</v>
       </c>
       <c r="C49" t="n">
-        <v>65.54499999999956</v>
+        <v>179.7600000000004</v>
       </c>
     </row>
     <row r="50">
@@ -1606,7 +1606,7 @@
         <v>4</v>
       </c>
       <c r="C50" t="n">
-        <v>55.32499999999956</v>
+        <v>178.7700000000004</v>
       </c>
     </row>
     <row r="51">
@@ -1617,7 +1617,7 @@
         <v>5</v>
       </c>
       <c r="C51" t="n">
-        <v>63.90499999999956</v>
+        <v>183.8700000000004</v>
       </c>
     </row>
     <row r="52">
@@ -1628,7 +1628,7 @@
         <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>185.6900000000003</v>
+        <v>64.40499999999942</v>
       </c>
     </row>
     <row r="53">
@@ -1639,7 +1639,7 @@
         <v>2</v>
       </c>
       <c r="C53" t="n">
-        <v>187.5150000000003</v>
+        <v>56.73499999999942</v>
       </c>
     </row>
     <row r="54">
@@ -1650,7 +1650,7 @@
         <v>3</v>
       </c>
       <c r="C54" t="n">
-        <v>183.7750000000003</v>
+        <v>69.55999999999942</v>
       </c>
     </row>
     <row r="55">
@@ -1661,7 +1661,7 @@
         <v>4</v>
       </c>
       <c r="C55" t="n">
-        <v>193.0650000000003</v>
+        <v>69.61999999999942</v>
       </c>
     </row>
     <row r="56">
@@ -1672,7 +1672,7 @@
         <v>5</v>
       </c>
       <c r="C56" t="n">
-        <v>189.7550000000003</v>
+        <v>69.78999999999942</v>
       </c>
     </row>
   </sheetData>

--- a/results/I2_N7_T30_C210_0_res_fix.xlsx
+++ b/results/I2_N7_T30_C210_0_res_fix.xlsx
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01199984550476074</v>
+        <v>0.01200008392333984</v>
       </c>
     </row>
     <row r="5">
